--- a/biology/Biologie cellulaire et moléculaire/BCL11A/BCL11A.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BCL11A/BCL11A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le BCL11A (pour « B-cell lymphoma/leukemia 11A ») est un facteur de transcription dont le gène est BCL11A situé sur le chromosome 2 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il augmente l'activité des Bcl-2, BCL2-xL et MDM2, et par ce biais, est un inhibiteur du P53[5].
-Il inhibe la production d'hémoglobine fœtale[6] et stimule la prolifération des lymphocytes[5] ainsi que des cellules dendritiques plasmacytoïdes[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il augmente l'activité des Bcl-2, BCL2-xL et MDM2, et par ce biais, est un inhibiteur du P53.
+Il inhibe la production d'hémoglobine fœtale et stimule la prolifération des lymphocytes ainsi que des cellules dendritiques plasmacytoïdes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La délétion du gène est responsable d'un syndrome associant la persistance d'un taux élevé d'hémoglobine fœtale ainsi que des troubles du spectre autistique.
-Une mutation du gène est associée avec un risque plus important de schizophrénie[8] ou de trouble du déficit de l'attention avec ou sans hyperactivité[9].
-L'inhibition du gène permet une augmentation de l'hémoglobine foetale et peut constituer ainsi une voie de traitement pour la drépanocytose[10] ou la bêta-thalassémie[11].
+Une mutation du gène est associée avec un risque plus important de schizophrénie ou de trouble du déficit de l'attention avec ou sans hyperactivité.
+L'inhibition du gène permet une augmentation de l'hémoglobine foetale et peut constituer ainsi une voie de traitement pour la drépanocytose ou la bêta-thalassémie.
 </t>
         </is>
       </c>
